--- a/PES/Doc/Rehan.xlsx
+++ b/PES/Doc/Rehan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8444324D-A54E-4638-9B4D-4A00A0F600C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DFBF89-B560-46F4-BFE4-3AF5CB96CFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t xml:space="preserve">CHARITY </t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>ZAKAT</t>
+  </si>
+  <si>
+    <t>Paid to Hassan Ex Class teacher Miss shahnaz via BAHL transfer</t>
   </si>
 </sst>
 </file>
@@ -144,9 +147,9 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +203,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,11 +247,8 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -266,100 +272,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{3B5E5601-E11C-462E-9ACF-34BD8B9B6183}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -638,15 +610,15 @@
   <dimension ref="A3:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="28" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" style="9" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
@@ -658,76 +630,85 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25">
         <v>16000</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
         <f>26000+10000-10000</f>
         <v>26000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>45458</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="25">
+        <f>E6-D7+C7</f>
+        <v>15000</v>
+      </c>
       <c r="N7" t="s">
         <v>8</v>
       </c>
@@ -736,207 +717,207 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="M8" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>3000</v>
       </c>
       <c r="O8">
         <v>10</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <f>O8*N8</f>
         <v>30000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="M9" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>2600</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <f>O9*N9</f>
         <v>26000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -952,482 +933,484 @@
   <dimension ref="A5:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="10"/>
-    <col min="11" max="11" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29" style="5" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="9"/>
+    <col min="11" max="11" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29" style="4" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>45413</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>29000</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
         <v>2000</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="N6" s="17" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="N6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="17"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>45417</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>9000</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="H7" s="9" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
+        <v>150</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="19">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="17">
         <f>D35</f>
         <v>0</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="15">
         <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="H8" s="9" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="H8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="17">
         <f>O35</f>
         <v>21900</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="N8" s="15" t="s">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="N8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <v>3500</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="H9" s="9" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>C35</f>
         <v>38000</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="N9" s="15" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="N9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <f>800*6</f>
         <v>4800</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="H10" s="9" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="H10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <f>I9+I8</f>
         <v>59900</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="N10" s="15" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="N10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <f>400*2</f>
         <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="N11" s="15" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="N11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="15">
         <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="H12" s="9" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="H12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <f>I8+I9-I10</f>
         <v>0</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="N12" s="15" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="N12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="15">
         <v>6000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="N13" s="15" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="N13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="15">
         <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="H14" s="9" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="H14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="19">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="17">
         <f>K7-I12</f>
         <v>0</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="H16" s="9" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="H16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="19">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="17">
         <f>E35</f>
-        <v>2000</v>
-      </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
+        <v>2150</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="H20" s="9" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="H20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="22">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="19">
         <f>K14-K16</f>
-        <v>-2000</v>
-      </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
+        <v>-2150</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
     </row>
     <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="H21" s="9" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="H21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="22">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="19">
         <f>K20/4</f>
-        <v>-500</v>
-      </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
+        <v>-537.5</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="16"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="16"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="15"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="16"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="15"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="16"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="16"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="15"/>
     </row>
     <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="K27" s="21"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="16"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="K27" s="18"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="16"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="15"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="16"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="15"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="16"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="16"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="15"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="16"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="16"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="15"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="16"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="15"/>
     </row>
     <row r="35" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <f>SUM(C6:C34)</f>
         <v>38000</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <f t="shared" ref="D35:E35" si="0">SUM(D6:D34)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="N35" s="15" t="s">
+        <v>2150</v>
+      </c>
+      <c r="N35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="16">
         <f>SUM(O7:O34)</f>
         <v>21900</v>
       </c>
